--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1159.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1159.xlsx
@@ -360,7 +360,7 @@
         <v>3.183799948853169</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1159.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1159.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.41616598956901</v>
+        <v>1.164309024810791</v>
       </c>
       <c r="B1">
-        <v>1.552794850497792</v>
+        <v>2.421557903289795</v>
       </c>
       <c r="C1">
-        <v>1.832434022108758</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.183799948853169</v>
+        <v>2.376310110092163</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>1.235073208808899</v>
       </c>
     </row>
   </sheetData>
